--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3721.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3721.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.354713559750816</v>
+        <v>1.313328742980957</v>
       </c>
       <c r="B1">
-        <v>2.841458751743807</v>
+        <v>3.4656982421875</v>
       </c>
       <c r="C1">
-        <v>6.267494458483513</v>
+        <v>3.187313556671143</v>
       </c>
       <c r="D1">
-        <v>1.986194364377561</v>
+        <v>1.580045461654663</v>
       </c>
       <c r="E1">
-        <v>1.032806958187152</v>
+        <v>1.139871954917908</v>
       </c>
     </row>
   </sheetData>
